--- a/data/costo_ventas/correcciones_costo_ventas_2_2024.xlsx
+++ b/data/costo_ventas/correcciones_costo_ventas_2_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\costo_ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FC4D0-3D20-4F88-A5E3-B477B6457CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EED391-B179-4AD5-AFEF-E63BBD4343D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FD9AB69-B58A-49D4-98B1-94DF0B8B7203}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7FD9AB69-B58A-49D4-98B1-94DF0B8B7203}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>SAE check. compra  P00799</t>
   </si>
   <si>
-    <t>is_correct</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>comentario_correct</t>
+  </si>
+  <si>
+    <t>is_verified</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -191,11 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -511,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC23A1-A251-4C0A-90EF-0690A0F1965F}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,7 +547,7 @@
         <v>63986</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5"/>
       <c r="F2" t="s">
@@ -566,7 +562,7 @@
         <v>64699</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
@@ -582,7 +578,7 @@
         <v>64959</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -591,38 +587,38 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1231</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>66241</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>1.73</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1231</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>66964</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>1.73</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -634,7 +630,7 @@
         <v>68428</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
@@ -648,7 +644,7 @@
         <v>68751</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" t="s">
@@ -679,7 +675,7 @@
         <v>75207</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -695,7 +691,7 @@
         <v>77317</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" t="s">
@@ -710,7 +706,7 @@
         <v>77393</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" t="s">
@@ -725,7 +721,7 @@
         <v>77847</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" t="s">
@@ -740,7 +736,7 @@
         <v>78795</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" t="s">
@@ -759,24 +755,24 @@
         <v>559</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>61</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>83051</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>1163.8</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -788,7 +784,7 @@
         <v>86722</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" t="s">
@@ -796,38 +792,38 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>641</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>87820</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>155.29</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>2646</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>87829</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>0.47</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -837,7 +833,7 @@
         <v>89585</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" t="s">
@@ -850,7 +846,7 @@
         <v>89676</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" t="s">
@@ -865,7 +861,7 @@
         <v>89729</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" t="s">
@@ -880,7 +876,7 @@
         <v>91143</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" t="s">
@@ -906,7 +902,7 @@
         <v>91411</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5"/>
       <c r="F25" t="s">
@@ -919,7 +915,7 @@
         <v>95682</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
@@ -935,7 +931,7 @@
         <v>96383</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5"/>
       <c r="F27" t="s">
@@ -966,7 +962,7 @@
         <v>97967</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" t="s">
@@ -974,16 +970,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>1624</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>98074</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -993,7 +989,7 @@
         <v>102652</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
@@ -1002,20 +998,20 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>2774</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>103319</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>0.72</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1027,7 +1023,7 @@
         <v>104389</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5"/>
       <c r="F33" t="s">
@@ -1035,20 +1031,20 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>3517</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>105498</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34">
         <v>4.16</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1060,7 +1056,7 @@
         <v>106989</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="5"/>
       <c r="F35" t="s">
@@ -1073,7 +1069,7 @@
         <v>106995</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="5"/>
       <c r="F36" t="s">
@@ -1088,7 +1084,7 @@
         <v>108176</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
@@ -1097,36 +1093,36 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>195</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>108625</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>30</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>110032</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8" t="s">
+      <c r="C39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1138,7 +1134,7 @@
         <v>111142</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -1160,20 +1156,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>195</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>113900</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1185,7 +1181,7 @@
         <v>113967</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
@@ -1201,7 +1197,7 @@
         <v>114455</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="5"/>
       <c r="F44" t="s">
@@ -1209,18 +1205,18 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>30</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>114553</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8" t="s">
+      <c r="C45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1232,7 +1228,7 @@
         <v>115074</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="5"/>
       <c r="F46" t="s">
@@ -1247,7 +1243,7 @@
         <v>119443</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="5"/>
       <c r="F47" t="s">
@@ -1260,7 +1256,7 @@
         <v>120087</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
@@ -1274,7 +1270,7 @@
         <v>120359</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="5"/>
       <c r="F49" t="s">
@@ -1287,7 +1283,7 @@
         <v>120360</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="5"/>
       <c r="F50" t="s">
@@ -1300,7 +1296,7 @@
         <v>120361</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5"/>
       <c r="F51" t="s">
@@ -1313,36 +1309,12 @@
         <v>120363</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5"/>
       <c r="F52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">

--- a/data/costo_ventas/correcciones_costo_ventas_2_2024.xlsx
+++ b/data/costo_ventas/correcciones_costo_ventas_2_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\costo_ventas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\costo_ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EED391-B179-4AD5-AFEF-E63BBD4343D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B466DB2E-5B40-43DA-AC82-1DA67B20A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7FD9AB69-B58A-49D4-98B1-94DF0B8B7203}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7FD9AB69-B58A-49D4-98B1-94DF0B8B7203}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>SAE</t>
   </si>
@@ -510,16 +510,16 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -539,7 +539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1823</v>
       </c>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1180</v>
       </c>
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>416</v>
       </c>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1231</v>
       </c>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1231</v>
       </c>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1533</v>
       </c>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>68751</v>
@@ -651,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2125</v>
       </c>
@@ -667,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1498</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2113</v>
       </c>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2095</v>
       </c>
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2123</v>
       </c>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2362</v>
       </c>
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2355</v>
       </c>
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>61</v>
       </c>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2641</v>
       </c>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>641</v>
       </c>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2646</v>
       </c>
@@ -827,7 +827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>89585</v>
@@ -840,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>89676</v>
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>3371</v>
       </c>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>3370</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>91387</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <v>91411</v>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>95682</v>
@@ -923,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>3178</v>
       </c>
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>3087</v>
       </c>
@@ -946,7 +946,9 @@
         <v>97846</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E28">
         <v>185.78</v>
       </c>
@@ -954,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>3174</v>
       </c>
@@ -969,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>1624</v>
       </c>
@@ -977,13 +979,17 @@
         <v>98074</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10.9</v>
+      </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5">
         <v>102652</v>
@@ -997,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2774</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>3555</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>3517</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1862</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5">
         <v>106995</v>
@@ -1076,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1566</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>195</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>30</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2774</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5">
         <v>111790</v>
@@ -1155,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>195</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>1566</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2892</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>30</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>3805</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>3943</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5">
         <v>120087</v>
@@ -1264,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5">
         <v>120359</v>
@@ -1277,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5">
         <v>120360</v>
@@ -1290,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5">
         <v>120361</v>
@@ -1303,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>120363</v>
@@ -1318,7 +1324,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
-    <sortCondition ref="B2:B52"/>
+    <sortCondition ref="B1:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
